--- a/biology/Zoologie/Ceratosoma_tenue/Ceratosoma_tenue.xlsx
+++ b/biology/Zoologie/Ceratosoma_tenue/Ceratosoma_tenue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratosoma tenue est une espèce de Nudibranche de la famille des Chromodorididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale Indo-Pacifique, des côtes africaines aux îles Hawaï en incluant la Mer Rouge[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale Indo-Pacifique, des côtes africaines aux îles Hawaï en incluant la Mer Rouge.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son habitat de prédilection correspond aux espaces sablonneux et "caillouteux" entre la zone intertidale et 15 m de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat de prédilection correspond aux espaces sablonneux et "caillouteux" entre la zone intertidale et 15 m de profondeur.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut mesurer jusqu'à 12 cm et possède un corps allongé.
 La livrée de cette espèce est extrêmement variable mais demeure toujours de couleur vive. Toutefois, cette dernière ne constitue pas un réel critère de détermination de l'espèce car elle peut facilement être confondue avec Ceratosoma trilobatum.
@@ -609,7 +627,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce Nudibranche est benthique et a une activité tout aussi bien diurne que nocturne.
 </t>
@@ -640,7 +660,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratosoma tenue se nourrit principalement d'éponges.
 </t>
@@ -671,7 +693,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Abraham, P. S. 1876. Notes on some genera of nudibranchiate Mollusca, with notices of a new genus and some hitherto undescribed species, in the collection of the British Museum. Annals &amp; Magazine of Natural History, (4)18: 132-146. (BHL)</t>
         </is>
